--- a/גאנט עבודה.xlsx
+++ b/גאנט עבודה.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1532d37c8cad3dae/שולחן העבודה/מיטל/לימודים/סמי שמעון/שנה ג/סמססטר ב/אבטחת נתונים/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitHub\Doctors_Security\Doctors_Security\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72724C26-37B1-4C65-B2B4-2BFCF48CD62D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C341B55-C102-4295-9918-1994CAC209A7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F78956AB-E293-4DCE-86B3-69E8E44B1CF8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F78956AB-E293-4DCE-86B3-69E8E44B1CF8}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t xml:space="preserve">אפשרות למשתמש לשלוח הודעה לרופא </t>
-  </si>
-  <si>
-    <t xml:space="preserve">אפשרות למשתמש לרשום המלצות/ דיס המלצות שיופיעו במידע האישי של הרופא </t>
   </si>
   <si>
     <t xml:space="preserve">אפשרות להעלות תמונות לחנות </t>
@@ -155,6 +152,9 @@
   <si>
     <t xml:space="preserve">הצפננת סיסמאות בבסיס הנתונים </t>
   </si>
+  <si>
+    <t xml:space="preserve">אפשרות למשתמש לרשום המלצות שיופיעו במידע האישי של הרופא </t>
+  </si>
 </sst>
 </file>
 
@@ -164,7 +164,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -205,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -218,6 +218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="2"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -268,7 +269,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -566,19 +567,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80036092-1CDD-4223-8CB5-5D7C48E70C85}">
   <dimension ref="A2:CM238"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="91" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:91" x14ac:dyDescent="0.25">
       <c r="D2" s="1">
         <f>WEEKDAY(D3)</f>
         <v>1</v>
@@ -932,7 +932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:91" ht="58.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:91" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1294,12 +1294,12 @@
         <v>43621</v>
       </c>
     </row>
-    <row r="4" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>43541</v>
+        <v>43537</v>
       </c>
       <c r="C4" s="4">
         <v>43541</v>
@@ -1393,7 +1393,7 @@
       <c r="CL4" s="2"/>
       <c r="CM4" s="2"/>
     </row>
-    <row r="5" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1492,7 +1492,7 @@
       <c r="CL5" s="2"/>
       <c r="CM5" s="2"/>
     </row>
-    <row r="6" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1591,7 +1591,7 @@
       <c r="CL6" s="2"/>
       <c r="CM6" s="2"/>
     </row>
-    <row r="7" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1690,12 +1690,16 @@
       <c r="CL7" s="2"/>
       <c r="CM7" s="2"/>
     </row>
-    <row r="8" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="4">
+        <v>43556</v>
+      </c>
+      <c r="C8" s="4">
+        <v>43562</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1785,12 +1789,16 @@
       <c r="CL8" s="2"/>
       <c r="CM8" s="2"/>
     </row>
-    <row r="9" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="B9" s="4">
+        <v>43547</v>
+      </c>
+      <c r="C9" s="4">
+        <v>43549</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1880,12 +1888,16 @@
       <c r="CL9" s="2"/>
       <c r="CM9" s="2"/>
     </row>
-    <row r="10" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="B10" s="4">
+        <v>43547</v>
+      </c>
+      <c r="C10" s="4">
+        <v>43550</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1975,12 +1987,16 @@
       <c r="CL10" s="2"/>
       <c r="CM10" s="2"/>
     </row>
-    <row r="11" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="B11" s="4">
+        <v>43586</v>
+      </c>
+      <c r="C11" s="4">
+        <v>43617</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -2070,12 +2086,16 @@
       <c r="CL11" s="2"/>
       <c r="CM11" s="2"/>
     </row>
-    <row r="12" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="4">
+        <v>43570</v>
+      </c>
+      <c r="C12" s="4">
+        <v>43575</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -2165,12 +2185,16 @@
       <c r="CL12" s="2"/>
       <c r="CM12" s="2"/>
     </row>
-    <row r="13" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="4">
+        <v>43570</v>
+      </c>
+      <c r="C13" s="4">
+        <v>43575</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -2260,12 +2284,16 @@
       <c r="CL13" s="2"/>
       <c r="CM13" s="2"/>
     </row>
-    <row r="14" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="B14" s="4">
+        <v>43575</v>
+      </c>
+      <c r="C14" s="4">
+        <v>43585</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -2355,12 +2383,16 @@
       <c r="CL14" s="2"/>
       <c r="CM14" s="2"/>
     </row>
-    <row r="15" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="6">
+        <v>43586</v>
+      </c>
+      <c r="C15" s="6">
+        <v>43617</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -2450,12 +2482,16 @@
       <c r="CL15" s="2"/>
       <c r="CM15" s="2"/>
     </row>
-    <row r="16" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="6">
+        <v>43575</v>
+      </c>
+      <c r="C16" s="6">
+        <v>43585</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -2545,12 +2581,16 @@
       <c r="CL16" s="2"/>
       <c r="CM16" s="2"/>
     </row>
-    <row r="17" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="6">
+        <v>43580</v>
+      </c>
+      <c r="C17" s="6">
+        <v>43585</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -2640,12 +2680,16 @@
       <c r="CL17" s="2"/>
       <c r="CM17" s="2"/>
     </row>
-    <row r="18" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="6">
+        <v>43586</v>
+      </c>
+      <c r="C18" s="6">
+        <v>43617</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2735,12 +2779,16 @@
       <c r="CL18" s="2"/>
       <c r="CM18" s="2"/>
     </row>
-    <row r="19" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="6">
+        <v>43554</v>
+      </c>
+      <c r="C19" s="6">
+        <v>43559</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -2830,12 +2878,16 @@
       <c r="CL19" s="2"/>
       <c r="CM19" s="2"/>
     </row>
-    <row r="20" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="6">
+        <v>43546</v>
+      </c>
+      <c r="C20" s="6">
+        <v>43552</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -2925,12 +2977,16 @@
       <c r="CL20" s="2"/>
       <c r="CM20" s="2"/>
     </row>
-    <row r="21" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="6">
+        <v>43546</v>
+      </c>
+      <c r="C21" s="6">
+        <v>43552</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -3020,12 +3076,16 @@
       <c r="CL21" s="2"/>
       <c r="CM21" s="2"/>
     </row>
-    <row r="22" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="6">
+        <v>43552</v>
+      </c>
+      <c r="C22" s="6">
+        <v>43559</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -3115,12 +3175,16 @@
       <c r="CL22" s="2"/>
       <c r="CM22" s="2"/>
     </row>
-    <row r="23" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="6">
+        <v>43552</v>
+      </c>
+      <c r="C23" s="6">
+        <v>43559</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -3210,12 +3274,16 @@
       <c r="CL23" s="2"/>
       <c r="CM23" s="2"/>
     </row>
-    <row r="24" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="6">
+        <v>43559</v>
+      </c>
+      <c r="C24" s="6">
+        <v>43565</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -3305,12 +3373,16 @@
       <c r="CL24" s="2"/>
       <c r="CM24" s="2"/>
     </row>
-    <row r="25" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="6">
+        <v>43586</v>
+      </c>
+      <c r="C25" s="6">
+        <v>43617</v>
+      </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -3400,12 +3472,16 @@
       <c r="CL25" s="2"/>
       <c r="CM25" s="2"/>
     </row>
-    <row r="26" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="6">
+        <v>43569</v>
+      </c>
+      <c r="C26" s="6">
+        <v>43578</v>
+      </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -3495,12 +3571,16 @@
       <c r="CL26" s="2"/>
       <c r="CM26" s="2"/>
     </row>
-    <row r="27" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="6">
+        <v>43569</v>
+      </c>
+      <c r="C27" s="6">
+        <v>43578</v>
+      </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -3590,12 +3670,16 @@
       <c r="CL27" s="2"/>
       <c r="CM27" s="2"/>
     </row>
-    <row r="28" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="6">
+        <v>43572</v>
+      </c>
+      <c r="C28" s="6">
+        <v>43582</v>
+      </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -3685,12 +3769,16 @@
       <c r="CL28" s="2"/>
       <c r="CM28" s="2"/>
     </row>
-    <row r="29" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="6">
+        <v>43576</v>
+      </c>
+      <c r="C29" s="6">
+        <v>43587</v>
+      </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -3780,12 +3868,16 @@
       <c r="CL29" s="2"/>
       <c r="CM29" s="2"/>
     </row>
-    <row r="30" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="6">
+        <v>43549</v>
+      </c>
+      <c r="C30" s="6">
+        <v>43556</v>
+      </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -3875,12 +3967,16 @@
       <c r="CL30" s="2"/>
       <c r="CM30" s="2"/>
     </row>
-    <row r="31" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="6">
+        <v>43549</v>
+      </c>
+      <c r="C31" s="6">
+        <v>43556</v>
+      </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -3970,12 +4066,16 @@
       <c r="CL31" s="2"/>
       <c r="CM31" s="2"/>
     </row>
-    <row r="32" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="6">
+        <v>43556</v>
+      </c>
+      <c r="C32" s="6">
+        <v>43559</v>
+      </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -4065,12 +4165,16 @@
       <c r="CL32" s="2"/>
       <c r="CM32" s="2"/>
     </row>
-    <row r="33" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="6">
+        <v>43558</v>
+      </c>
+      <c r="C33" s="6">
+        <v>43562</v>
+      </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -4160,12 +4264,16 @@
       <c r="CL33" s="2"/>
       <c r="CM33" s="2"/>
     </row>
-    <row r="34" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="6">
+        <v>43561</v>
+      </c>
+      <c r="C34" s="6">
+        <v>43564</v>
+      </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -4255,12 +4363,16 @@
       <c r="CL34" s="2"/>
       <c r="CM34" s="2"/>
     </row>
-    <row r="35" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="6">
+        <v>43563</v>
+      </c>
+      <c r="C35" s="6">
+        <v>43566</v>
+      </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -4350,12 +4462,16 @@
       <c r="CL35" s="2"/>
       <c r="CM35" s="2"/>
     </row>
-    <row r="36" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="6">
+        <v>43546</v>
+      </c>
+      <c r="C36" s="6">
+        <v>43554</v>
+      </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -4445,12 +4561,16 @@
       <c r="CL36" s="2"/>
       <c r="CM36" s="2"/>
     </row>
-    <row r="37" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="6">
+        <v>43548</v>
+      </c>
+      <c r="C37" s="6">
+        <v>43557</v>
+      </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -4540,12 +4660,16 @@
       <c r="CL37" s="2"/>
       <c r="CM37" s="2"/>
     </row>
-    <row r="38" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="6">
+        <v>43564</v>
+      </c>
+      <c r="C38" s="6">
+        <v>43570</v>
+      </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -4635,12 +4759,16 @@
       <c r="CL38" s="2"/>
       <c r="CM38" s="2"/>
     </row>
-    <row r="39" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="6">
+        <v>43566</v>
+      </c>
+      <c r="C39" s="6">
+        <v>43581</v>
+      </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -4730,12 +4858,16 @@
       <c r="CL39" s="2"/>
       <c r="CM39" s="2"/>
     </row>
-    <row r="40" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="6">
+        <v>43556</v>
+      </c>
+      <c r="C40" s="6">
+        <v>43610</v>
+      </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -4825,12 +4957,16 @@
       <c r="CL40" s="2"/>
       <c r="CM40" s="2"/>
     </row>
-    <row r="41" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="6">
+        <v>43556</v>
+      </c>
+      <c r="C41" s="6">
+        <v>43610</v>
+      </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -4920,7 +5056,7 @@
       <c r="CL41" s="2"/>
       <c r="CM41" s="2"/>
     </row>
-    <row r="42" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -5013,7 +5149,7 @@
       <c r="CL42" s="2"/>
       <c r="CM42" s="2"/>
     </row>
-    <row r="43" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -5106,7 +5242,7 @@
       <c r="CL43" s="2"/>
       <c r="CM43" s="2"/>
     </row>
-    <row r="44" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -5199,7 +5335,7 @@
       <c r="CL44" s="2"/>
       <c r="CM44" s="2"/>
     </row>
-    <row r="45" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -5292,7 +5428,7 @@
       <c r="CL45" s="2"/>
       <c r="CM45" s="2"/>
     </row>
-    <row r="46" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -5385,7 +5521,7 @@
       <c r="CL46" s="2"/>
       <c r="CM46" s="2"/>
     </row>
-    <row r="47" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -5478,7 +5614,7 @@
       <c r="CL47" s="2"/>
       <c r="CM47" s="2"/>
     </row>
-    <row r="48" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -5571,7 +5707,7 @@
       <c r="CL48" s="2"/>
       <c r="CM48" s="2"/>
     </row>
-    <row r="49" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -5664,7 +5800,7 @@
       <c r="CL49" s="2"/>
       <c r="CM49" s="2"/>
     </row>
-    <row r="50" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -5757,7 +5893,7 @@
       <c r="CL50" s="2"/>
       <c r="CM50" s="2"/>
     </row>
-    <row r="51" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -5850,7 +5986,7 @@
       <c r="CL51" s="2"/>
       <c r="CM51" s="2"/>
     </row>
-    <row r="52" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -5943,7 +6079,7 @@
       <c r="CL52" s="2"/>
       <c r="CM52" s="2"/>
     </row>
-    <row r="53" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -6036,7 +6172,7 @@
       <c r="CL53" s="2"/>
       <c r="CM53" s="2"/>
     </row>
-    <row r="54" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -6129,7 +6265,7 @@
       <c r="CL54" s="2"/>
       <c r="CM54" s="2"/>
     </row>
-    <row r="55" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -6222,7 +6358,7 @@
       <c r="CL55" s="2"/>
       <c r="CM55" s="2"/>
     </row>
-    <row r="56" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -6315,7 +6451,7 @@
       <c r="CL56" s="2"/>
       <c r="CM56" s="2"/>
     </row>
-    <row r="57" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -6408,7 +6544,7 @@
       <c r="CL57" s="2"/>
       <c r="CM57" s="2"/>
     </row>
-    <row r="58" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -6501,7 +6637,7 @@
       <c r="CL58" s="2"/>
       <c r="CM58" s="2"/>
     </row>
-    <row r="59" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -6594,7 +6730,7 @@
       <c r="CL59" s="2"/>
       <c r="CM59" s="2"/>
     </row>
-    <row r="60" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -6687,7 +6823,7 @@
       <c r="CL60" s="2"/>
       <c r="CM60" s="2"/>
     </row>
-    <row r="61" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -6780,7 +6916,7 @@
       <c r="CL61" s="2"/>
       <c r="CM61" s="2"/>
     </row>
-    <row r="62" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -6873,7 +7009,7 @@
       <c r="CL62" s="2"/>
       <c r="CM62" s="2"/>
     </row>
-    <row r="63" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -6966,7 +7102,7 @@
       <c r="CL63" s="2"/>
       <c r="CM63" s="2"/>
     </row>
-    <row r="64" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -7059,7 +7195,7 @@
       <c r="CL64" s="2"/>
       <c r="CM64" s="2"/>
     </row>
-    <row r="65" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -7152,7 +7288,7 @@
       <c r="CL65" s="2"/>
       <c r="CM65" s="2"/>
     </row>
-    <row r="66" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -7245,7 +7381,7 @@
       <c r="CL66" s="2"/>
       <c r="CM66" s="2"/>
     </row>
-    <row r="67" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -7338,7 +7474,7 @@
       <c r="CL67" s="2"/>
       <c r="CM67" s="2"/>
     </row>
-    <row r="68" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -7431,7 +7567,7 @@
       <c r="CL68" s="2"/>
       <c r="CM68" s="2"/>
     </row>
-    <row r="69" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -7524,7 +7660,7 @@
       <c r="CL69" s="2"/>
       <c r="CM69" s="2"/>
     </row>
-    <row r="70" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -7617,7 +7753,7 @@
       <c r="CL70" s="2"/>
       <c r="CM70" s="2"/>
     </row>
-    <row r="71" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -7710,7 +7846,7 @@
       <c r="CL71" s="2"/>
       <c r="CM71" s="2"/>
     </row>
-    <row r="72" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -7803,7 +7939,7 @@
       <c r="CL72" s="2"/>
       <c r="CM72" s="2"/>
     </row>
-    <row r="73" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -7896,7 +8032,7 @@
       <c r="CL73" s="2"/>
       <c r="CM73" s="2"/>
     </row>
-    <row r="74" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -7989,7 +8125,7 @@
       <c r="CL74" s="2"/>
       <c r="CM74" s="2"/>
     </row>
-    <row r="75" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -8082,7 +8218,7 @@
       <c r="CL75" s="2"/>
       <c r="CM75" s="2"/>
     </row>
-    <row r="76" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -8175,7 +8311,7 @@
       <c r="CL76" s="2"/>
       <c r="CM76" s="2"/>
     </row>
-    <row r="77" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -8268,7 +8404,7 @@
       <c r="CL77" s="2"/>
       <c r="CM77" s="2"/>
     </row>
-    <row r="78" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -8361,7 +8497,7 @@
       <c r="CL78" s="2"/>
       <c r="CM78" s="2"/>
     </row>
-    <row r="79" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -8454,7 +8590,7 @@
       <c r="CL79" s="2"/>
       <c r="CM79" s="2"/>
     </row>
-    <row r="80" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -8547,7 +8683,7 @@
       <c r="CL80" s="2"/>
       <c r="CM80" s="2"/>
     </row>
-    <row r="81" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -8640,7 +8776,7 @@
       <c r="CL81" s="2"/>
       <c r="CM81" s="2"/>
     </row>
-    <row r="82" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -8733,7 +8869,7 @@
       <c r="CL82" s="2"/>
       <c r="CM82" s="2"/>
     </row>
-    <row r="83" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -8826,7 +8962,7 @@
       <c r="CL83" s="2"/>
       <c r="CM83" s="2"/>
     </row>
-    <row r="84" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -8919,7 +9055,7 @@
       <c r="CL84" s="2"/>
       <c r="CM84" s="2"/>
     </row>
-    <row r="85" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -9012,7 +9148,7 @@
       <c r="CL85" s="2"/>
       <c r="CM85" s="2"/>
     </row>
-    <row r="86" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -9105,7 +9241,7 @@
       <c r="CL86" s="2"/>
       <c r="CM86" s="2"/>
     </row>
-    <row r="87" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -9198,7 +9334,7 @@
       <c r="CL87" s="2"/>
       <c r="CM87" s="2"/>
     </row>
-    <row r="88" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -9291,7 +9427,7 @@
       <c r="CL88" s="2"/>
       <c r="CM88" s="2"/>
     </row>
-    <row r="89" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -9384,7 +9520,7 @@
       <c r="CL89" s="2"/>
       <c r="CM89" s="2"/>
     </row>
-    <row r="90" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -9477,7 +9613,7 @@
       <c r="CL90" s="2"/>
       <c r="CM90" s="2"/>
     </row>
-    <row r="91" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -9570,7 +9706,7 @@
       <c r="CL91" s="2"/>
       <c r="CM91" s="2"/>
     </row>
-    <row r="92" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -9663,7 +9799,7 @@
       <c r="CL92" s="2"/>
       <c r="CM92" s="2"/>
     </row>
-    <row r="93" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -9756,7 +9892,7 @@
       <c r="CL93" s="2"/>
       <c r="CM93" s="2"/>
     </row>
-    <row r="94" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -9849,7 +9985,7 @@
       <c r="CL94" s="2"/>
       <c r="CM94" s="2"/>
     </row>
-    <row r="95" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -9942,7 +10078,7 @@
       <c r="CL95" s="2"/>
       <c r="CM95" s="2"/>
     </row>
-    <row r="96" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -10035,7 +10171,7 @@
       <c r="CL96" s="2"/>
       <c r="CM96" s="2"/>
     </row>
-    <row r="97" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -10128,7 +10264,7 @@
       <c r="CL97" s="2"/>
       <c r="CM97" s="2"/>
     </row>
-    <row r="98" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -10221,7 +10357,7 @@
       <c r="CL98" s="2"/>
       <c r="CM98" s="2"/>
     </row>
-    <row r="99" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -10314,7 +10450,7 @@
       <c r="CL99" s="2"/>
       <c r="CM99" s="2"/>
     </row>
-    <row r="100" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -10407,7 +10543,7 @@
       <c r="CL100" s="2"/>
       <c r="CM100" s="2"/>
     </row>
-    <row r="101" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -10500,7 +10636,7 @@
       <c r="CL101" s="2"/>
       <c r="CM101" s="2"/>
     </row>
-    <row r="102" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -10593,7 +10729,7 @@
       <c r="CL102" s="2"/>
       <c r="CM102" s="2"/>
     </row>
-    <row r="103" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -10686,7 +10822,7 @@
       <c r="CL103" s="2"/>
       <c r="CM103" s="2"/>
     </row>
-    <row r="104" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -10779,7 +10915,7 @@
       <c r="CL104" s="2"/>
       <c r="CM104" s="2"/>
     </row>
-    <row r="105" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -10872,7 +11008,7 @@
       <c r="CL105" s="2"/>
       <c r="CM105" s="2"/>
     </row>
-    <row r="106" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -10965,7 +11101,7 @@
       <c r="CL106" s="2"/>
       <c r="CM106" s="2"/>
     </row>
-    <row r="107" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -11058,7 +11194,7 @@
       <c r="CL107" s="2"/>
       <c r="CM107" s="2"/>
     </row>
-    <row r="108" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -11151,7 +11287,7 @@
       <c r="CL108" s="2"/>
       <c r="CM108" s="2"/>
     </row>
-    <row r="109" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -11244,7 +11380,7 @@
       <c r="CL109" s="2"/>
       <c r="CM109" s="2"/>
     </row>
-    <row r="110" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -11337,7 +11473,7 @@
       <c r="CL110" s="2"/>
       <c r="CM110" s="2"/>
     </row>
-    <row r="111" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -11430,7 +11566,7 @@
       <c r="CL111" s="2"/>
       <c r="CM111" s="2"/>
     </row>
-    <row r="112" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -11523,7 +11659,7 @@
       <c r="CL112" s="2"/>
       <c r="CM112" s="2"/>
     </row>
-    <row r="113" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -11616,7 +11752,7 @@
       <c r="CL113" s="2"/>
       <c r="CM113" s="2"/>
     </row>
-    <row r="114" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -11709,7 +11845,7 @@
       <c r="CL114" s="2"/>
       <c r="CM114" s="2"/>
     </row>
-    <row r="115" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -11802,7 +11938,7 @@
       <c r="CL115" s="2"/>
       <c r="CM115" s="2"/>
     </row>
-    <row r="116" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -11895,7 +12031,7 @@
       <c r="CL116" s="2"/>
       <c r="CM116" s="2"/>
     </row>
-    <row r="117" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -11988,7 +12124,7 @@
       <c r="CL117" s="2"/>
       <c r="CM117" s="2"/>
     </row>
-    <row r="118" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -12081,7 +12217,7 @@
       <c r="CL118" s="2"/>
       <c r="CM118" s="2"/>
     </row>
-    <row r="119" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -12174,7 +12310,7 @@
       <c r="CL119" s="2"/>
       <c r="CM119" s="2"/>
     </row>
-    <row r="120" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -12267,7 +12403,7 @@
       <c r="CL120" s="2"/>
       <c r="CM120" s="2"/>
     </row>
-    <row r="121" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -12360,7 +12496,7 @@
       <c r="CL121" s="2"/>
       <c r="CM121" s="2"/>
     </row>
-    <row r="122" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -12453,7 +12589,7 @@
       <c r="CL122" s="2"/>
       <c r="CM122" s="2"/>
     </row>
-    <row r="123" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -12546,7 +12682,7 @@
       <c r="CL123" s="2"/>
       <c r="CM123" s="2"/>
     </row>
-    <row r="124" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -12639,7 +12775,7 @@
       <c r="CL124" s="2"/>
       <c r="CM124" s="2"/>
     </row>
-    <row r="125" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -12732,7 +12868,7 @@
       <c r="CL125" s="2"/>
       <c r="CM125" s="2"/>
     </row>
-    <row r="126" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -12825,7 +12961,7 @@
       <c r="CL126" s="2"/>
       <c r="CM126" s="2"/>
     </row>
-    <row r="127" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -12918,7 +13054,7 @@
       <c r="CL127" s="2"/>
       <c r="CM127" s="2"/>
     </row>
-    <row r="128" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -13011,7 +13147,7 @@
       <c r="CL128" s="2"/>
       <c r="CM128" s="2"/>
     </row>
-    <row r="129" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -13104,7 +13240,7 @@
       <c r="CL129" s="2"/>
       <c r="CM129" s="2"/>
     </row>
-    <row r="130" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -13197,7 +13333,7 @@
       <c r="CL130" s="2"/>
       <c r="CM130" s="2"/>
     </row>
-    <row r="131" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -13290,7 +13426,7 @@
       <c r="CL131" s="2"/>
       <c r="CM131" s="2"/>
     </row>
-    <row r="132" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -13383,7 +13519,7 @@
       <c r="CL132" s="2"/>
       <c r="CM132" s="2"/>
     </row>
-    <row r="133" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -13476,7 +13612,7 @@
       <c r="CL133" s="2"/>
       <c r="CM133" s="2"/>
     </row>
-    <row r="134" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -13569,7 +13705,7 @@
       <c r="CL134" s="2"/>
       <c r="CM134" s="2"/>
     </row>
-    <row r="135" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -13662,7 +13798,7 @@
       <c r="CL135" s="2"/>
       <c r="CM135" s="2"/>
     </row>
-    <row r="136" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -13755,7 +13891,7 @@
       <c r="CL136" s="2"/>
       <c r="CM136" s="2"/>
     </row>
-    <row r="137" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -13848,7 +13984,7 @@
       <c r="CL137" s="2"/>
       <c r="CM137" s="2"/>
     </row>
-    <row r="138" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -13941,7 +14077,7 @@
       <c r="CL138" s="2"/>
       <c r="CM138" s="2"/>
     </row>
-    <row r="139" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -14034,7 +14170,7 @@
       <c r="CL139" s="2"/>
       <c r="CM139" s="2"/>
     </row>
-    <row r="140" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -14127,7 +14263,7 @@
       <c r="CL140" s="2"/>
       <c r="CM140" s="2"/>
     </row>
-    <row r="141" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -14220,7 +14356,7 @@
       <c r="CL141" s="2"/>
       <c r="CM141" s="2"/>
     </row>
-    <row r="142" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -14313,7 +14449,7 @@
       <c r="CL142" s="2"/>
       <c r="CM142" s="2"/>
     </row>
-    <row r="143" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -14406,7 +14542,7 @@
       <c r="CL143" s="2"/>
       <c r="CM143" s="2"/>
     </row>
-    <row r="144" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -14499,7 +14635,7 @@
       <c r="CL144" s="2"/>
       <c r="CM144" s="2"/>
     </row>
-    <row r="145" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -14592,7 +14728,7 @@
       <c r="CL145" s="2"/>
       <c r="CM145" s="2"/>
     </row>
-    <row r="146" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -14685,7 +14821,7 @@
       <c r="CL146" s="2"/>
       <c r="CM146" s="2"/>
     </row>
-    <row r="147" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -14778,7 +14914,7 @@
       <c r="CL147" s="2"/>
       <c r="CM147" s="2"/>
     </row>
-    <row r="148" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -14871,7 +15007,7 @@
       <c r="CL148" s="2"/>
       <c r="CM148" s="2"/>
     </row>
-    <row r="149" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -14964,7 +15100,7 @@
       <c r="CL149" s="2"/>
       <c r="CM149" s="2"/>
     </row>
-    <row r="150" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -15057,7 +15193,7 @@
       <c r="CL150" s="2"/>
       <c r="CM150" s="2"/>
     </row>
-    <row r="151" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -15150,7 +15286,7 @@
       <c r="CL151" s="2"/>
       <c r="CM151" s="2"/>
     </row>
-    <row r="152" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -15243,7 +15379,7 @@
       <c r="CL152" s="2"/>
       <c r="CM152" s="2"/>
     </row>
-    <row r="153" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -15336,7 +15472,7 @@
       <c r="CL153" s="2"/>
       <c r="CM153" s="2"/>
     </row>
-    <row r="154" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -15429,7 +15565,7 @@
       <c r="CL154" s="2"/>
       <c r="CM154" s="2"/>
     </row>
-    <row r="155" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -15522,7 +15658,7 @@
       <c r="CL155" s="2"/>
       <c r="CM155" s="2"/>
     </row>
-    <row r="156" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -15615,7 +15751,7 @@
       <c r="CL156" s="2"/>
       <c r="CM156" s="2"/>
     </row>
-    <row r="157" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -15708,7 +15844,7 @@
       <c r="CL157" s="2"/>
       <c r="CM157" s="2"/>
     </row>
-    <row r="158" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -15801,7 +15937,7 @@
       <c r="CL158" s="2"/>
       <c r="CM158" s="2"/>
     </row>
-    <row r="159" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -15894,7 +16030,7 @@
       <c r="CL159" s="2"/>
       <c r="CM159" s="2"/>
     </row>
-    <row r="160" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -15987,7 +16123,7 @@
       <c r="CL160" s="2"/>
       <c r="CM160" s="2"/>
     </row>
-    <row r="161" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -16080,7 +16216,7 @@
       <c r="CL161" s="2"/>
       <c r="CM161" s="2"/>
     </row>
-    <row r="162" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -16173,7 +16309,7 @@
       <c r="CL162" s="2"/>
       <c r="CM162" s="2"/>
     </row>
-    <row r="163" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -16266,7 +16402,7 @@
       <c r="CL163" s="2"/>
       <c r="CM163" s="2"/>
     </row>
-    <row r="164" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -16359,7 +16495,7 @@
       <c r="CL164" s="2"/>
       <c r="CM164" s="2"/>
     </row>
-    <row r="165" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -16452,7 +16588,7 @@
       <c r="CL165" s="2"/>
       <c r="CM165" s="2"/>
     </row>
-    <row r="166" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -16545,7 +16681,7 @@
       <c r="CL166" s="2"/>
       <c r="CM166" s="2"/>
     </row>
-    <row r="167" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -16638,7 +16774,7 @@
       <c r="CL167" s="2"/>
       <c r="CM167" s="2"/>
     </row>
-    <row r="168" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -16731,7 +16867,7 @@
       <c r="CL168" s="2"/>
       <c r="CM168" s="2"/>
     </row>
-    <row r="169" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -16824,7 +16960,7 @@
       <c r="CL169" s="2"/>
       <c r="CM169" s="2"/>
     </row>
-    <row r="170" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -16917,7 +17053,7 @@
       <c r="CL170" s="2"/>
       <c r="CM170" s="2"/>
     </row>
-    <row r="171" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -17010,7 +17146,7 @@
       <c r="CL171" s="2"/>
       <c r="CM171" s="2"/>
     </row>
-    <row r="172" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -17103,7 +17239,7 @@
       <c r="CL172" s="2"/>
       <c r="CM172" s="2"/>
     </row>
-    <row r="173" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -17196,7 +17332,7 @@
       <c r="CL173" s="2"/>
       <c r="CM173" s="2"/>
     </row>
-    <row r="174" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -17289,7 +17425,7 @@
       <c r="CL174" s="2"/>
       <c r="CM174" s="2"/>
     </row>
-    <row r="175" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -17382,7 +17518,7 @@
       <c r="CL175" s="2"/>
       <c r="CM175" s="2"/>
     </row>
-    <row r="176" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -17475,7 +17611,7 @@
       <c r="CL176" s="2"/>
       <c r="CM176" s="2"/>
     </row>
-    <row r="177" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -17568,7 +17704,7 @@
       <c r="CL177" s="2"/>
       <c r="CM177" s="2"/>
     </row>
-    <row r="178" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -17661,7 +17797,7 @@
       <c r="CL178" s="2"/>
       <c r="CM178" s="2"/>
     </row>
-    <row r="179" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -17754,7 +17890,7 @@
       <c r="CL179" s="2"/>
       <c r="CM179" s="2"/>
     </row>
-    <row r="180" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -17847,7 +17983,7 @@
       <c r="CL180" s="2"/>
       <c r="CM180" s="2"/>
     </row>
-    <row r="181" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -17940,7 +18076,7 @@
       <c r="CL181" s="2"/>
       <c r="CM181" s="2"/>
     </row>
-    <row r="182" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -18033,7 +18169,7 @@
       <c r="CL182" s="2"/>
       <c r="CM182" s="2"/>
     </row>
-    <row r="183" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -18126,7 +18262,7 @@
       <c r="CL183" s="2"/>
       <c r="CM183" s="2"/>
     </row>
-    <row r="184" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -18219,7 +18355,7 @@
       <c r="CL184" s="2"/>
       <c r="CM184" s="2"/>
     </row>
-    <row r="185" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -18312,7 +18448,7 @@
       <c r="CL185" s="2"/>
       <c r="CM185" s="2"/>
     </row>
-    <row r="186" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -18405,7 +18541,7 @@
       <c r="CL186" s="2"/>
       <c r="CM186" s="2"/>
     </row>
-    <row r="187" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -18498,7 +18634,7 @@
       <c r="CL187" s="2"/>
       <c r="CM187" s="2"/>
     </row>
-    <row r="188" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -18591,7 +18727,7 @@
       <c r="CL188" s="2"/>
       <c r="CM188" s="2"/>
     </row>
-    <row r="189" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -18684,7 +18820,7 @@
       <c r="CL189" s="2"/>
       <c r="CM189" s="2"/>
     </row>
-    <row r="190" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -18777,7 +18913,7 @@
       <c r="CL190" s="2"/>
       <c r="CM190" s="2"/>
     </row>
-    <row r="191" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -18870,7 +19006,7 @@
       <c r="CL191" s="2"/>
       <c r="CM191" s="2"/>
     </row>
-    <row r="192" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -18963,7 +19099,7 @@
       <c r="CL192" s="2"/>
       <c r="CM192" s="2"/>
     </row>
-    <row r="193" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -19056,7 +19192,7 @@
       <c r="CL193" s="2"/>
       <c r="CM193" s="2"/>
     </row>
-    <row r="194" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -19149,7 +19285,7 @@
       <c r="CL194" s="2"/>
       <c r="CM194" s="2"/>
     </row>
-    <row r="195" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -19242,7 +19378,7 @@
       <c r="CL195" s="2"/>
       <c r="CM195" s="2"/>
     </row>
-    <row r="196" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -19335,7 +19471,7 @@
       <c r="CL196" s="2"/>
       <c r="CM196" s="2"/>
     </row>
-    <row r="197" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -19428,7 +19564,7 @@
       <c r="CL197" s="2"/>
       <c r="CM197" s="2"/>
     </row>
-    <row r="198" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -19521,7 +19657,7 @@
       <c r="CL198" s="2"/>
       <c r="CM198" s="2"/>
     </row>
-    <row r="199" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -19614,7 +19750,7 @@
       <c r="CL199" s="2"/>
       <c r="CM199" s="2"/>
     </row>
-    <row r="200" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -19707,7 +19843,7 @@
       <c r="CL200" s="2"/>
       <c r="CM200" s="2"/>
     </row>
-    <row r="201" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -19800,7 +19936,7 @@
       <c r="CL201" s="2"/>
       <c r="CM201" s="2"/>
     </row>
-    <row r="202" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -19893,7 +20029,7 @@
       <c r="CL202" s="2"/>
       <c r="CM202" s="2"/>
     </row>
-    <row r="203" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -19986,7 +20122,7 @@
       <c r="CL203" s="2"/>
       <c r="CM203" s="2"/>
     </row>
-    <row r="204" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -20079,7 +20215,7 @@
       <c r="CL204" s="2"/>
       <c r="CM204" s="2"/>
     </row>
-    <row r="205" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -20172,7 +20308,7 @@
       <c r="CL205" s="2"/>
       <c r="CM205" s="2"/>
     </row>
-    <row r="206" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -20265,7 +20401,7 @@
       <c r="CL206" s="2"/>
       <c r="CM206" s="2"/>
     </row>
-    <row r="207" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -20358,7 +20494,7 @@
       <c r="CL207" s="2"/>
       <c r="CM207" s="2"/>
     </row>
-    <row r="208" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -20451,7 +20587,7 @@
       <c r="CL208" s="2"/>
       <c r="CM208" s="2"/>
     </row>
-    <row r="209" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -20544,7 +20680,7 @@
       <c r="CL209" s="2"/>
       <c r="CM209" s="2"/>
     </row>
-    <row r="210" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -20637,7 +20773,7 @@
       <c r="CL210" s="2"/>
       <c r="CM210" s="2"/>
     </row>
-    <row r="211" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -20730,7 +20866,7 @@
       <c r="CL211" s="2"/>
       <c r="CM211" s="2"/>
     </row>
-    <row r="212" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -20823,7 +20959,7 @@
       <c r="CL212" s="2"/>
       <c r="CM212" s="2"/>
     </row>
-    <row r="213" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -20916,7 +21052,7 @@
       <c r="CL213" s="2"/>
       <c r="CM213" s="2"/>
     </row>
-    <row r="214" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -21009,7 +21145,7 @@
       <c r="CL214" s="2"/>
       <c r="CM214" s="2"/>
     </row>
-    <row r="215" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -21102,7 +21238,7 @@
       <c r="CL215" s="2"/>
       <c r="CM215" s="2"/>
     </row>
-    <row r="216" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -21195,7 +21331,7 @@
       <c r="CL216" s="2"/>
       <c r="CM216" s="2"/>
     </row>
-    <row r="217" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -21288,7 +21424,7 @@
       <c r="CL217" s="2"/>
       <c r="CM217" s="2"/>
     </row>
-    <row r="218" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -21381,7 +21517,7 @@
       <c r="CL218" s="2"/>
       <c r="CM218" s="2"/>
     </row>
-    <row r="219" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -21474,7 +21610,7 @@
       <c r="CL219" s="2"/>
       <c r="CM219" s="2"/>
     </row>
-    <row r="220" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -21567,7 +21703,7 @@
       <c r="CL220" s="2"/>
       <c r="CM220" s="2"/>
     </row>
-    <row r="221" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -21660,7 +21796,7 @@
       <c r="CL221" s="2"/>
       <c r="CM221" s="2"/>
     </row>
-    <row r="222" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -21753,7 +21889,7 @@
       <c r="CL222" s="2"/>
       <c r="CM222" s="2"/>
     </row>
-    <row r="223" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -21846,7 +21982,7 @@
       <c r="CL223" s="2"/>
       <c r="CM223" s="2"/>
     </row>
-    <row r="224" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -21939,7 +22075,7 @@
       <c r="CL224" s="2"/>
       <c r="CM224" s="2"/>
     </row>
-    <row r="225" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -22032,7 +22168,7 @@
       <c r="CL225" s="2"/>
       <c r="CM225" s="2"/>
     </row>
-    <row r="226" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -22125,7 +22261,7 @@
       <c r="CL226" s="2"/>
       <c r="CM226" s="2"/>
     </row>
-    <row r="227" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -22218,7 +22354,7 @@
       <c r="CL227" s="2"/>
       <c r="CM227" s="2"/>
     </row>
-    <row r="228" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -22311,7 +22447,7 @@
       <c r="CL228" s="2"/>
       <c r="CM228" s="2"/>
     </row>
-    <row r="229" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -22404,7 +22540,7 @@
       <c r="CL229" s="2"/>
       <c r="CM229" s="2"/>
     </row>
-    <row r="230" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -22497,7 +22633,7 @@
       <c r="CL230" s="2"/>
       <c r="CM230" s="2"/>
     </row>
-    <row r="231" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -22590,7 +22726,7 @@
       <c r="CL231" s="2"/>
       <c r="CM231" s="2"/>
     </row>
-    <row r="232" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -22683,7 +22819,7 @@
       <c r="CL232" s="2"/>
       <c r="CM232" s="2"/>
     </row>
-    <row r="233" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -22776,7 +22912,7 @@
       <c r="CL233" s="2"/>
       <c r="CM233" s="2"/>
     </row>
-    <row r="234" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -22869,7 +23005,7 @@
       <c r="CL234" s="2"/>
       <c r="CM234" s="2"/>
     </row>
-    <row r="235" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -22962,7 +23098,7 @@
       <c r="CL235" s="2"/>
       <c r="CM235" s="2"/>
     </row>
-    <row r="236" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -23055,7 +23191,7 @@
       <c r="CL236" s="2"/>
       <c r="CM236" s="2"/>
     </row>
-    <row r="237" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -23148,7 +23284,7 @@
       <c r="CL237" s="2"/>
       <c r="CM237" s="2"/>
     </row>
-    <row r="238" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>

--- a/גאנט עבודה.xlsx
+++ b/גאנט עבודה.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitHub\Doctors_Security\Doctors_Security\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C341B55-C102-4295-9918-1994CAC209A7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F80659-4F8F-4821-A7EC-F5A5740EC99A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F78956AB-E293-4DCE-86B3-69E8E44B1CF8}"/>
   </bookViews>
@@ -205,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -214,11 +214,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="180"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,15 +572,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80036092-1CDD-4223-8CB5-5D7C48E70C85}">
   <dimension ref="A2:CM238"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="91" width="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" customWidth="1"/>
+    <col min="4" max="91" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:91" x14ac:dyDescent="0.25">
@@ -932,8 +938,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:91" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:91" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1295,13 +1301,13 @@
       </c>
     </row>
     <row r="4" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>43537</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>43541</v>
       </c>
       <c r="D4" s="2"/>
@@ -1394,13 +1400,13 @@
       <c r="CM4" s="2"/>
     </row>
     <row r="5" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>43541</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>43542</v>
       </c>
       <c r="D5" s="2"/>
@@ -1493,13 +1499,13 @@
       <c r="CM5" s="2"/>
     </row>
     <row r="6" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>43543</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>43544</v>
       </c>
       <c r="D6" s="2"/>
@@ -1592,13 +1598,13 @@
       <c r="CM6" s="2"/>
     </row>
     <row r="7" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>43605</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>43615</v>
       </c>
       <c r="D7" s="2"/>
@@ -1691,13 +1697,13 @@
       <c r="CM7" s="2"/>
     </row>
     <row r="8" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>43556</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <v>43562</v>
       </c>
       <c r="D8" s="2"/>
@@ -1790,13 +1796,13 @@
       <c r="CM8" s="2"/>
     </row>
     <row r="9" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <v>43547</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="5">
         <v>43549</v>
       </c>
       <c r="D9" s="2"/>
@@ -1889,13 +1895,13 @@
       <c r="CM9" s="2"/>
     </row>
     <row r="10" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <v>43547</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>43550</v>
       </c>
       <c r="D10" s="2"/>
@@ -1988,13 +1994,13 @@
       <c r="CM10" s="2"/>
     </row>
     <row r="11" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="5">
         <v>43586</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="5">
         <v>43617</v>
       </c>
       <c r="D11" s="2"/>
@@ -2087,13 +2093,13 @@
       <c r="CM11" s="2"/>
     </row>
     <row r="12" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="5">
         <v>43570</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="5">
         <v>43575</v>
       </c>
       <c r="D12" s="2"/>
@@ -2186,13 +2192,13 @@
       <c r="CM12" s="2"/>
     </row>
     <row r="13" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="5">
         <v>43570</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="5">
         <v>43575</v>
       </c>
       <c r="D13" s="2"/>
@@ -2285,13 +2291,13 @@
       <c r="CM13" s="2"/>
     </row>
     <row r="14" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="5">
         <v>43575</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="5">
         <v>43585</v>
       </c>
       <c r="D14" s="2"/>
@@ -2384,13 +2390,13 @@
       <c r="CM14" s="2"/>
     </row>
     <row r="15" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>43586</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>43617</v>
       </c>
       <c r="D15" s="2"/>
@@ -2483,13 +2489,13 @@
       <c r="CM15" s="2"/>
     </row>
     <row r="16" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>43575</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>43585</v>
       </c>
       <c r="D16" s="2"/>
@@ -2582,13 +2588,13 @@
       <c r="CM16" s="2"/>
     </row>
     <row r="17" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>43580</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>43585</v>
       </c>
       <c r="D17" s="2"/>
@@ -2681,13 +2687,13 @@
       <c r="CM17" s="2"/>
     </row>
     <row r="18" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>43586</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>43617</v>
       </c>
       <c r="D18" s="2"/>
@@ -2780,13 +2786,13 @@
       <c r="CM18" s="2"/>
     </row>
     <row r="19" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>43554</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>43559</v>
       </c>
       <c r="D19" s="2"/>
@@ -2879,13 +2885,13 @@
       <c r="CM19" s="2"/>
     </row>
     <row r="20" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>43546</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>43552</v>
       </c>
       <c r="D20" s="2"/>
@@ -2978,13 +2984,13 @@
       <c r="CM20" s="2"/>
     </row>
     <row r="21" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>43546</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>43552</v>
       </c>
       <c r="D21" s="2"/>
@@ -3077,13 +3083,13 @@
       <c r="CM21" s="2"/>
     </row>
     <row r="22" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>43552</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>43559</v>
       </c>
       <c r="D22" s="2"/>
@@ -3176,13 +3182,13 @@
       <c r="CM22" s="2"/>
     </row>
     <row r="23" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>43552</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>43559</v>
       </c>
       <c r="D23" s="2"/>
@@ -3275,13 +3281,13 @@
       <c r="CM23" s="2"/>
     </row>
     <row r="24" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>43559</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>43565</v>
       </c>
       <c r="D24" s="2"/>
@@ -3374,13 +3380,13 @@
       <c r="CM24" s="2"/>
     </row>
     <row r="25" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>43586</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>43617</v>
       </c>
       <c r="D25" s="2"/>
@@ -3473,13 +3479,13 @@
       <c r="CM25" s="2"/>
     </row>
     <row r="26" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>43569</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>43578</v>
       </c>
       <c r="D26" s="2"/>
@@ -3572,13 +3578,13 @@
       <c r="CM26" s="2"/>
     </row>
     <row r="27" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>43569</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>43578</v>
       </c>
       <c r="D27" s="2"/>
@@ -3671,13 +3677,13 @@
       <c r="CM27" s="2"/>
     </row>
     <row r="28" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <v>43572</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>43582</v>
       </c>
       <c r="D28" s="2"/>
@@ -3770,13 +3776,13 @@
       <c r="CM28" s="2"/>
     </row>
     <row r="29" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>43576</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>43587</v>
       </c>
       <c r="D29" s="2"/>
@@ -3869,13 +3875,13 @@
       <c r="CM29" s="2"/>
     </row>
     <row r="30" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <v>43549</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>43556</v>
       </c>
       <c r="D30" s="2"/>
@@ -3968,13 +3974,13 @@
       <c r="CM30" s="2"/>
     </row>
     <row r="31" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="5">
         <v>43549</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>43556</v>
       </c>
       <c r="D31" s="2"/>
@@ -4067,13 +4073,13 @@
       <c r="CM31" s="2"/>
     </row>
     <row r="32" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="5">
         <v>43556</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>43559</v>
       </c>
       <c r="D32" s="2"/>
@@ -4166,13 +4172,13 @@
       <c r="CM32" s="2"/>
     </row>
     <row r="33" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="5">
         <v>43558</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>43562</v>
       </c>
       <c r="D33" s="2"/>
@@ -4265,13 +4271,13 @@
       <c r="CM33" s="2"/>
     </row>
     <row r="34" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="5">
         <v>43561</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>43564</v>
       </c>
       <c r="D34" s="2"/>
@@ -4364,13 +4370,13 @@
       <c r="CM34" s="2"/>
     </row>
     <row r="35" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <v>43563</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>43566</v>
       </c>
       <c r="D35" s="2"/>
@@ -4463,13 +4469,13 @@
       <c r="CM35" s="2"/>
     </row>
     <row r="36" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="5">
         <v>43546</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <v>43554</v>
       </c>
       <c r="D36" s="2"/>
@@ -4562,13 +4568,13 @@
       <c r="CM36" s="2"/>
     </row>
     <row r="37" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="5">
         <v>43548</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <v>43557</v>
       </c>
       <c r="D37" s="2"/>
@@ -4661,13 +4667,13 @@
       <c r="CM37" s="2"/>
     </row>
     <row r="38" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <v>43564</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>43570</v>
       </c>
       <c r="D38" s="2"/>
@@ -4760,13 +4766,13 @@
       <c r="CM38" s="2"/>
     </row>
     <row r="39" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="5">
         <v>43566</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <v>43581</v>
       </c>
       <c r="D39" s="2"/>
@@ -4859,13 +4865,13 @@
       <c r="CM39" s="2"/>
     </row>
     <row r="40" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="5">
         <v>43556</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>43610</v>
       </c>
       <c r="D40" s="2"/>
@@ -4958,13 +4964,13 @@
       <c r="CM40" s="2"/>
     </row>
     <row r="41" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="5">
         <v>43556</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <v>43610</v>
       </c>
       <c r="D41" s="2"/>
@@ -5057,7 +5063,7 @@
       <c r="CM41" s="2"/>
     </row>
     <row r="42" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
+      <c r="A42" s="7"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -5150,7 +5156,7 @@
       <c r="CM42" s="2"/>
     </row>
     <row r="43" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
+      <c r="A43" s="7"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -5243,7 +5249,7 @@
       <c r="CM43" s="2"/>
     </row>
     <row r="44" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
+      <c r="A44" s="7"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -5336,7 +5342,7 @@
       <c r="CM44" s="2"/>
     </row>
     <row r="45" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
+      <c r="A45" s="7"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -5429,7 +5435,7 @@
       <c r="CM45" s="2"/>
     </row>
     <row r="46" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
+      <c r="A46" s="7"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -5522,7 +5528,7 @@
       <c r="CM46" s="2"/>
     </row>
     <row r="47" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
+      <c r="A47" s="7"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -5615,7 +5621,7 @@
       <c r="CM47" s="2"/>
     </row>
     <row r="48" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
+      <c r="A48" s="7"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -5708,7 +5714,7 @@
       <c r="CM48" s="2"/>
     </row>
     <row r="49" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
+      <c r="A49" s="7"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -5801,7 +5807,7 @@
       <c r="CM49" s="2"/>
     </row>
     <row r="50" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
+      <c r="A50" s="7"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -5894,7 +5900,7 @@
       <c r="CM50" s="2"/>
     </row>
     <row r="51" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
+      <c r="A51" s="7"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -5987,7 +5993,7 @@
       <c r="CM51" s="2"/>
     </row>
     <row r="52" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
+      <c r="A52" s="7"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -6080,7 +6086,7 @@
       <c r="CM52" s="2"/>
     </row>
     <row r="53" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
+      <c r="A53" s="7"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -6173,7 +6179,7 @@
       <c r="CM53" s="2"/>
     </row>
     <row r="54" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
+      <c r="A54" s="7"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -6266,7 +6272,7 @@
       <c r="CM54" s="2"/>
     </row>
     <row r="55" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
+      <c r="A55" s="7"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -6359,7 +6365,7 @@
       <c r="CM55" s="2"/>
     </row>
     <row r="56" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
+      <c r="A56" s="7"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -6452,7 +6458,7 @@
       <c r="CM56" s="2"/>
     </row>
     <row r="57" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
+      <c r="A57" s="7"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -6545,7 +6551,7 @@
       <c r="CM57" s="2"/>
     </row>
     <row r="58" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
+      <c r="A58" s="7"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -6638,7 +6644,7 @@
       <c r="CM58" s="2"/>
     </row>
     <row r="59" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
+      <c r="A59" s="7"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -6731,7 +6737,7 @@
       <c r="CM59" s="2"/>
     </row>
     <row r="60" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
+      <c r="A60" s="7"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -6824,7 +6830,7 @@
       <c r="CM60" s="2"/>
     </row>
     <row r="61" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
+      <c r="A61" s="7"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -6917,7 +6923,7 @@
       <c r="CM61" s="2"/>
     </row>
     <row r="62" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
+      <c r="A62" s="7"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -7010,7 +7016,7 @@
       <c r="CM62" s="2"/>
     </row>
     <row r="63" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
+      <c r="A63" s="7"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -7103,7 +7109,7 @@
       <c r="CM63" s="2"/>
     </row>
     <row r="64" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
+      <c r="A64" s="7"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -7196,7 +7202,7 @@
       <c r="CM64" s="2"/>
     </row>
     <row r="65" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
+      <c r="A65" s="7"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -7289,7 +7295,7 @@
       <c r="CM65" s="2"/>
     </row>
     <row r="66" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
+      <c r="A66" s="7"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -7382,7 +7388,7 @@
       <c r="CM66" s="2"/>
     </row>
     <row r="67" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
+      <c r="A67" s="7"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -7475,7 +7481,7 @@
       <c r="CM67" s="2"/>
     </row>
     <row r="68" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
+      <c r="A68" s="7"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -7568,7 +7574,7 @@
       <c r="CM68" s="2"/>
     </row>
     <row r="69" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
+      <c r="A69" s="7"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -7661,7 +7667,7 @@
       <c r="CM69" s="2"/>
     </row>
     <row r="70" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
+      <c r="A70" s="7"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -7754,7 +7760,7 @@
       <c r="CM70" s="2"/>
     </row>
     <row r="71" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
+      <c r="A71" s="7"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -7847,7 +7853,7 @@
       <c r="CM71" s="2"/>
     </row>
     <row r="72" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
+      <c r="A72" s="7"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -7940,7 +7946,7 @@
       <c r="CM72" s="2"/>
     </row>
     <row r="73" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
+      <c r="A73" s="7"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -8033,7 +8039,7 @@
       <c r="CM73" s="2"/>
     </row>
     <row r="74" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
+      <c r="A74" s="7"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -8126,7 +8132,7 @@
       <c r="CM74" s="2"/>
     </row>
     <row r="75" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
+      <c r="A75" s="7"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -8219,7 +8225,7 @@
       <c r="CM75" s="2"/>
     </row>
     <row r="76" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
+      <c r="A76" s="7"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -8312,7 +8318,7 @@
       <c r="CM76" s="2"/>
     </row>
     <row r="77" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
+      <c r="A77" s="7"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -8405,7 +8411,7 @@
       <c r="CM77" s="2"/>
     </row>
     <row r="78" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
+      <c r="A78" s="7"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -8498,7 +8504,7 @@
       <c r="CM78" s="2"/>
     </row>
     <row r="79" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
+      <c r="A79" s="7"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -8591,7 +8597,7 @@
       <c r="CM79" s="2"/>
     </row>
     <row r="80" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
+      <c r="A80" s="7"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -8684,7 +8690,7 @@
       <c r="CM80" s="2"/>
     </row>
     <row r="81" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
+      <c r="A81" s="7"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -8777,7 +8783,7 @@
       <c r="CM81" s="2"/>
     </row>
     <row r="82" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
+      <c r="A82" s="7"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -8870,7 +8876,7 @@
       <c r="CM82" s="2"/>
     </row>
     <row r="83" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
+      <c r="A83" s="7"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -8963,7 +8969,7 @@
       <c r="CM83" s="2"/>
     </row>
     <row r="84" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
+      <c r="A84" s="7"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -9056,7 +9062,7 @@
       <c r="CM84" s="2"/>
     </row>
     <row r="85" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
+      <c r="A85" s="7"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -9149,7 +9155,7 @@
       <c r="CM85" s="2"/>
     </row>
     <row r="86" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
+      <c r="A86" s="7"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -9242,7 +9248,7 @@
       <c r="CM86" s="2"/>
     </row>
     <row r="87" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
+      <c r="A87" s="7"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -9335,7 +9341,7 @@
       <c r="CM87" s="2"/>
     </row>
     <row r="88" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
+      <c r="A88" s="7"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -9428,7 +9434,7 @@
       <c r="CM88" s="2"/>
     </row>
     <row r="89" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
+      <c r="A89" s="7"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -9521,7 +9527,7 @@
       <c r="CM89" s="2"/>
     </row>
     <row r="90" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
+      <c r="A90" s="7"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -9614,7 +9620,7 @@
       <c r="CM90" s="2"/>
     </row>
     <row r="91" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
+      <c r="A91" s="7"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -9707,7 +9713,7 @@
       <c r="CM91" s="2"/>
     </row>
     <row r="92" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
+      <c r="A92" s="7"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -9800,7 +9806,7 @@
       <c r="CM92" s="2"/>
     </row>
     <row r="93" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
+      <c r="A93" s="7"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -9893,7 +9899,7 @@
       <c r="CM93" s="2"/>
     </row>
     <row r="94" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A94" s="2"/>
+      <c r="A94" s="7"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -9986,7 +9992,7 @@
       <c r="CM94" s="2"/>
     </row>
     <row r="95" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A95" s="2"/>
+      <c r="A95" s="7"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -10079,7 +10085,7 @@
       <c r="CM95" s="2"/>
     </row>
     <row r="96" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A96" s="2"/>
+      <c r="A96" s="7"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -10172,7 +10178,7 @@
       <c r="CM96" s="2"/>
     </row>
     <row r="97" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A97" s="2"/>
+      <c r="A97" s="7"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -10265,7 +10271,7 @@
       <c r="CM97" s="2"/>
     </row>
     <row r="98" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A98" s="2"/>
+      <c r="A98" s="7"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -10358,7 +10364,7 @@
       <c r="CM98" s="2"/>
     </row>
     <row r="99" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A99" s="2"/>
+      <c r="A99" s="7"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -10451,7 +10457,7 @@
       <c r="CM99" s="2"/>
     </row>
     <row r="100" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
+      <c r="A100" s="7"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -10544,7 +10550,7 @@
       <c r="CM100" s="2"/>
     </row>
     <row r="101" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A101" s="2"/>
+      <c r="A101" s="7"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -10637,7 +10643,7 @@
       <c r="CM101" s="2"/>
     </row>
     <row r="102" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A102" s="2"/>
+      <c r="A102" s="7"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -10730,7 +10736,7 @@
       <c r="CM102" s="2"/>
     </row>
     <row r="103" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A103" s="2"/>
+      <c r="A103" s="7"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -10823,7 +10829,7 @@
       <c r="CM103" s="2"/>
     </row>
     <row r="104" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A104" s="2"/>
+      <c r="A104" s="7"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -10916,7 +10922,7 @@
       <c r="CM104" s="2"/>
     </row>
     <row r="105" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A105" s="2"/>
+      <c r="A105" s="7"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -11009,7 +11015,7 @@
       <c r="CM105" s="2"/>
     </row>
     <row r="106" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A106" s="2"/>
+      <c r="A106" s="7"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -11102,7 +11108,7 @@
       <c r="CM106" s="2"/>
     </row>
     <row r="107" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A107" s="2"/>
+      <c r="A107" s="7"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -11195,7 +11201,7 @@
       <c r="CM107" s="2"/>
     </row>
     <row r="108" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A108" s="2"/>
+      <c r="A108" s="7"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -11288,7 +11294,7 @@
       <c r="CM108" s="2"/>
     </row>
     <row r="109" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A109" s="2"/>
+      <c r="A109" s="7"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -11381,7 +11387,7 @@
       <c r="CM109" s="2"/>
     </row>
     <row r="110" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A110" s="2"/>
+      <c r="A110" s="7"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -11474,7 +11480,7 @@
       <c r="CM110" s="2"/>
     </row>
     <row r="111" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A111" s="2"/>
+      <c r="A111" s="7"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -11567,7 +11573,7 @@
       <c r="CM111" s="2"/>
     </row>
     <row r="112" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A112" s="2"/>
+      <c r="A112" s="7"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -11660,7 +11666,7 @@
       <c r="CM112" s="2"/>
     </row>
     <row r="113" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A113" s="2"/>
+      <c r="A113" s="7"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -11753,7 +11759,7 @@
       <c r="CM113" s="2"/>
     </row>
     <row r="114" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A114" s="2"/>
+      <c r="A114" s="7"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -11846,7 +11852,7 @@
       <c r="CM114" s="2"/>
     </row>
     <row r="115" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A115" s="2"/>
+      <c r="A115" s="7"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -11939,7 +11945,7 @@
       <c r="CM115" s="2"/>
     </row>
     <row r="116" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A116" s="2"/>
+      <c r="A116" s="7"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -12032,7 +12038,7 @@
       <c r="CM116" s="2"/>
     </row>
     <row r="117" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A117" s="2"/>
+      <c r="A117" s="7"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -12125,7 +12131,7 @@
       <c r="CM117" s="2"/>
     </row>
     <row r="118" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A118" s="2"/>
+      <c r="A118" s="7"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -12218,7 +12224,7 @@
       <c r="CM118" s="2"/>
     </row>
     <row r="119" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A119" s="2"/>
+      <c r="A119" s="7"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -12311,7 +12317,7 @@
       <c r="CM119" s="2"/>
     </row>
     <row r="120" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A120" s="2"/>
+      <c r="A120" s="7"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -12404,7 +12410,7 @@
       <c r="CM120" s="2"/>
     </row>
     <row r="121" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A121" s="2"/>
+      <c r="A121" s="7"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -12497,7 +12503,7 @@
       <c r="CM121" s="2"/>
     </row>
     <row r="122" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A122" s="2"/>
+      <c r="A122" s="7"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -12590,7 +12596,7 @@
       <c r="CM122" s="2"/>
     </row>
     <row r="123" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A123" s="2"/>
+      <c r="A123" s="7"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -12683,7 +12689,7 @@
       <c r="CM123" s="2"/>
     </row>
     <row r="124" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A124" s="2"/>
+      <c r="A124" s="7"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -12776,7 +12782,7 @@
       <c r="CM124" s="2"/>
     </row>
     <row r="125" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A125" s="2"/>
+      <c r="A125" s="7"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -12869,7 +12875,7 @@
       <c r="CM125" s="2"/>
     </row>
     <row r="126" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A126" s="2"/>
+      <c r="A126" s="7"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -12962,7 +12968,7 @@
       <c r="CM126" s="2"/>
     </row>
     <row r="127" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A127" s="2"/>
+      <c r="A127" s="7"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -13055,7 +13061,7 @@
       <c r="CM127" s="2"/>
     </row>
     <row r="128" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A128" s="2"/>
+      <c r="A128" s="7"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -13148,7 +13154,7 @@
       <c r="CM128" s="2"/>
     </row>
     <row r="129" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A129" s="2"/>
+      <c r="A129" s="7"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -13241,7 +13247,7 @@
       <c r="CM129" s="2"/>
     </row>
     <row r="130" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A130" s="2"/>
+      <c r="A130" s="7"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -13334,7 +13340,7 @@
       <c r="CM130" s="2"/>
     </row>
     <row r="131" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A131" s="2"/>
+      <c r="A131" s="7"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -13427,7 +13433,7 @@
       <c r="CM131" s="2"/>
     </row>
     <row r="132" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A132" s="2"/>
+      <c r="A132" s="7"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -13520,7 +13526,7 @@
       <c r="CM132" s="2"/>
     </row>
     <row r="133" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A133" s="2"/>
+      <c r="A133" s="7"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -13613,7 +13619,7 @@
       <c r="CM133" s="2"/>
     </row>
     <row r="134" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A134" s="2"/>
+      <c r="A134" s="7"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -13706,7 +13712,7 @@
       <c r="CM134" s="2"/>
     </row>
     <row r="135" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A135" s="2"/>
+      <c r="A135" s="7"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -13799,7 +13805,7 @@
       <c r="CM135" s="2"/>
     </row>
     <row r="136" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A136" s="2"/>
+      <c r="A136" s="7"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -13892,7 +13898,7 @@
       <c r="CM136" s="2"/>
     </row>
     <row r="137" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A137" s="2"/>
+      <c r="A137" s="7"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -13985,7 +13991,7 @@
       <c r="CM137" s="2"/>
     </row>
     <row r="138" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A138" s="2"/>
+      <c r="A138" s="7"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -14078,7 +14084,7 @@
       <c r="CM138" s="2"/>
     </row>
     <row r="139" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A139" s="2"/>
+      <c r="A139" s="7"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
@@ -14171,7 +14177,7 @@
       <c r="CM139" s="2"/>
     </row>
     <row r="140" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A140" s="2"/>
+      <c r="A140" s="7"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
@@ -14264,7 +14270,7 @@
       <c r="CM140" s="2"/>
     </row>
     <row r="141" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A141" s="2"/>
+      <c r="A141" s="7"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
@@ -14357,7 +14363,7 @@
       <c r="CM141" s="2"/>
     </row>
     <row r="142" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A142" s="2"/>
+      <c r="A142" s="7"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
@@ -14450,7 +14456,7 @@
       <c r="CM142" s="2"/>
     </row>
     <row r="143" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A143" s="2"/>
+      <c r="A143" s="7"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
@@ -14543,7 +14549,7 @@
       <c r="CM143" s="2"/>
     </row>
     <row r="144" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A144" s="2"/>
+      <c r="A144" s="7"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -14636,7 +14642,7 @@
       <c r="CM144" s="2"/>
     </row>
     <row r="145" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A145" s="2"/>
+      <c r="A145" s="7"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
@@ -14729,7 +14735,7 @@
       <c r="CM145" s="2"/>
     </row>
     <row r="146" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A146" s="2"/>
+      <c r="A146" s="7"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -14822,7 +14828,7 @@
       <c r="CM146" s="2"/>
     </row>
     <row r="147" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A147" s="2"/>
+      <c r="A147" s="7"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
@@ -14915,7 +14921,7 @@
       <c r="CM147" s="2"/>
     </row>
     <row r="148" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A148" s="2"/>
+      <c r="A148" s="7"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -15008,7 +15014,7 @@
       <c r="CM148" s="2"/>
     </row>
     <row r="149" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A149" s="2"/>
+      <c r="A149" s="7"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -15101,7 +15107,7 @@
       <c r="CM149" s="2"/>
     </row>
     <row r="150" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A150" s="2"/>
+      <c r="A150" s="7"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
@@ -15194,7 +15200,7 @@
       <c r="CM150" s="2"/>
     </row>
     <row r="151" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A151" s="2"/>
+      <c r="A151" s="7"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -15287,7 +15293,7 @@
       <c r="CM151" s="2"/>
     </row>
     <row r="152" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A152" s="2"/>
+      <c r="A152" s="7"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -15380,7 +15386,7 @@
       <c r="CM152" s="2"/>
     </row>
     <row r="153" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A153" s="2"/>
+      <c r="A153" s="7"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -15473,7 +15479,7 @@
       <c r="CM153" s="2"/>
     </row>
     <row r="154" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A154" s="2"/>
+      <c r="A154" s="7"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -15566,7 +15572,7 @@
       <c r="CM154" s="2"/>
     </row>
     <row r="155" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A155" s="2"/>
+      <c r="A155" s="7"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -15659,7 +15665,7 @@
       <c r="CM155" s="2"/>
     </row>
     <row r="156" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A156" s="2"/>
+      <c r="A156" s="7"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -15752,7 +15758,7 @@
       <c r="CM156" s="2"/>
     </row>
     <row r="157" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A157" s="2"/>
+      <c r="A157" s="7"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -15845,7 +15851,7 @@
       <c r="CM157" s="2"/>
     </row>
     <row r="158" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A158" s="2"/>
+      <c r="A158" s="7"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -15938,7 +15944,7 @@
       <c r="CM158" s="2"/>
     </row>
     <row r="159" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A159" s="2"/>
+      <c r="A159" s="7"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -16031,7 +16037,7 @@
       <c r="CM159" s="2"/>
     </row>
     <row r="160" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A160" s="2"/>
+      <c r="A160" s="7"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -16124,7 +16130,7 @@
       <c r="CM160" s="2"/>
     </row>
     <row r="161" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A161" s="2"/>
+      <c r="A161" s="7"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -16217,7 +16223,7 @@
       <c r="CM161" s="2"/>
     </row>
     <row r="162" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A162" s="2"/>
+      <c r="A162" s="7"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -16310,7 +16316,7 @@
       <c r="CM162" s="2"/>
     </row>
     <row r="163" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A163" s="2"/>
+      <c r="A163" s="7"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -16403,7 +16409,7 @@
       <c r="CM163" s="2"/>
     </row>
     <row r="164" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A164" s="2"/>
+      <c r="A164" s="7"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
@@ -16496,7 +16502,7 @@
       <c r="CM164" s="2"/>
     </row>
     <row r="165" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A165" s="2"/>
+      <c r="A165" s="7"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
@@ -16589,7 +16595,7 @@
       <c r="CM165" s="2"/>
     </row>
     <row r="166" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A166" s="2"/>
+      <c r="A166" s="7"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
@@ -16682,7 +16688,7 @@
       <c r="CM166" s="2"/>
     </row>
     <row r="167" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A167" s="2"/>
+      <c r="A167" s="7"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
@@ -16775,7 +16781,7 @@
       <c r="CM167" s="2"/>
     </row>
     <row r="168" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A168" s="2"/>
+      <c r="A168" s="7"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
@@ -16868,7 +16874,7 @@
       <c r="CM168" s="2"/>
     </row>
     <row r="169" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A169" s="2"/>
+      <c r="A169" s="7"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
@@ -16961,7 +16967,7 @@
       <c r="CM169" s="2"/>
     </row>
     <row r="170" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A170" s="2"/>
+      <c r="A170" s="7"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -17054,7 +17060,7 @@
       <c r="CM170" s="2"/>
     </row>
     <row r="171" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A171" s="2"/>
+      <c r="A171" s="7"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -17147,7 +17153,7 @@
       <c r="CM171" s="2"/>
     </row>
     <row r="172" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A172" s="2"/>
+      <c r="A172" s="7"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
@@ -17240,7 +17246,7 @@
       <c r="CM172" s="2"/>
     </row>
     <row r="173" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A173" s="2"/>
+      <c r="A173" s="7"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
@@ -17333,7 +17339,7 @@
       <c r="CM173" s="2"/>
     </row>
     <row r="174" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A174" s="2"/>
+      <c r="A174" s="7"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
@@ -17426,7 +17432,7 @@
       <c r="CM174" s="2"/>
     </row>
     <row r="175" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A175" s="2"/>
+      <c r="A175" s="7"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
@@ -17519,7 +17525,7 @@
       <c r="CM175" s="2"/>
     </row>
     <row r="176" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A176" s="2"/>
+      <c r="A176" s="7"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
@@ -17612,7 +17618,7 @@
       <c r="CM176" s="2"/>
     </row>
     <row r="177" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A177" s="2"/>
+      <c r="A177" s="7"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
@@ -17705,7 +17711,7 @@
       <c r="CM177" s="2"/>
     </row>
     <row r="178" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A178" s="2"/>
+      <c r="A178" s="7"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
@@ -17798,7 +17804,7 @@
       <c r="CM178" s="2"/>
     </row>
     <row r="179" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A179" s="2"/>
+      <c r="A179" s="7"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
@@ -17891,7 +17897,7 @@
       <c r="CM179" s="2"/>
     </row>
     <row r="180" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A180" s="2"/>
+      <c r="A180" s="7"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
@@ -17984,7 +17990,7 @@
       <c r="CM180" s="2"/>
     </row>
     <row r="181" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A181" s="2"/>
+      <c r="A181" s="7"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
@@ -18077,7 +18083,7 @@
       <c r="CM181" s="2"/>
     </row>
     <row r="182" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A182" s="2"/>
+      <c r="A182" s="7"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
@@ -18170,7 +18176,7 @@
       <c r="CM182" s="2"/>
     </row>
     <row r="183" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A183" s="2"/>
+      <c r="A183" s="7"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
@@ -18263,7 +18269,7 @@
       <c r="CM183" s="2"/>
     </row>
     <row r="184" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A184" s="2"/>
+      <c r="A184" s="7"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
@@ -18356,7 +18362,7 @@
       <c r="CM184" s="2"/>
     </row>
     <row r="185" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A185" s="2"/>
+      <c r="A185" s="7"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
@@ -18449,7 +18455,7 @@
       <c r="CM185" s="2"/>
     </row>
     <row r="186" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A186" s="2"/>
+      <c r="A186" s="7"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
@@ -18542,7 +18548,7 @@
       <c r="CM186" s="2"/>
     </row>
     <row r="187" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A187" s="2"/>
+      <c r="A187" s="7"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
@@ -18635,7 +18641,7 @@
       <c r="CM187" s="2"/>
     </row>
     <row r="188" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A188" s="2"/>
+      <c r="A188" s="7"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
@@ -18728,7 +18734,7 @@
       <c r="CM188" s="2"/>
     </row>
     <row r="189" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A189" s="2"/>
+      <c r="A189" s="7"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
@@ -18821,7 +18827,7 @@
       <c r="CM189" s="2"/>
     </row>
     <row r="190" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A190" s="2"/>
+      <c r="A190" s="7"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
@@ -18914,7 +18920,7 @@
       <c r="CM190" s="2"/>
     </row>
     <row r="191" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A191" s="2"/>
+      <c r="A191" s="7"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
@@ -19007,7 +19013,7 @@
       <c r="CM191" s="2"/>
     </row>
     <row r="192" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A192" s="2"/>
+      <c r="A192" s="7"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
@@ -19100,7 +19106,7 @@
       <c r="CM192" s="2"/>
     </row>
     <row r="193" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A193" s="2"/>
+      <c r="A193" s="7"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
@@ -19193,7 +19199,7 @@
       <c r="CM193" s="2"/>
     </row>
     <row r="194" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A194" s="2"/>
+      <c r="A194" s="7"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
@@ -19286,7 +19292,7 @@
       <c r="CM194" s="2"/>
     </row>
     <row r="195" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A195" s="2"/>
+      <c r="A195" s="7"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
@@ -19379,7 +19385,7 @@
       <c r="CM195" s="2"/>
     </row>
     <row r="196" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A196" s="2"/>
+      <c r="A196" s="7"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
@@ -19472,7 +19478,7 @@
       <c r="CM196" s="2"/>
     </row>
     <row r="197" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A197" s="2"/>
+      <c r="A197" s="7"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
@@ -19565,7 +19571,7 @@
       <c r="CM197" s="2"/>
     </row>
     <row r="198" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A198" s="2"/>
+      <c r="A198" s="7"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
@@ -19658,7 +19664,7 @@
       <c r="CM198" s="2"/>
     </row>
     <row r="199" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A199" s="2"/>
+      <c r="A199" s="7"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
@@ -19751,7 +19757,7 @@
       <c r="CM199" s="2"/>
     </row>
     <row r="200" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A200" s="2"/>
+      <c r="A200" s="7"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
@@ -19844,7 +19850,7 @@
       <c r="CM200" s="2"/>
     </row>
     <row r="201" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A201" s="2"/>
+      <c r="A201" s="7"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
@@ -19937,7 +19943,7 @@
       <c r="CM201" s="2"/>
     </row>
     <row r="202" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A202" s="2"/>
+      <c r="A202" s="7"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
@@ -20030,7 +20036,7 @@
       <c r="CM202" s="2"/>
     </row>
     <row r="203" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A203" s="2"/>
+      <c r="A203" s="7"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
@@ -20123,7 +20129,7 @@
       <c r="CM203" s="2"/>
     </row>
     <row r="204" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A204" s="2"/>
+      <c r="A204" s="7"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
@@ -20216,7 +20222,7 @@
       <c r="CM204" s="2"/>
     </row>
     <row r="205" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A205" s="2"/>
+      <c r="A205" s="7"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
@@ -20309,7 +20315,7 @@
       <c r="CM205" s="2"/>
     </row>
     <row r="206" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A206" s="2"/>
+      <c r="A206" s="7"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
@@ -20402,7 +20408,7 @@
       <c r="CM206" s="2"/>
     </row>
     <row r="207" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A207" s="2"/>
+      <c r="A207" s="7"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
@@ -20495,7 +20501,7 @@
       <c r="CM207" s="2"/>
     </row>
     <row r="208" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A208" s="2"/>
+      <c r="A208" s="7"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
@@ -20588,7 +20594,7 @@
       <c r="CM208" s="2"/>
     </row>
     <row r="209" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A209" s="2"/>
+      <c r="A209" s="7"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
@@ -20681,7 +20687,7 @@
       <c r="CM209" s="2"/>
     </row>
     <row r="210" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A210" s="2"/>
+      <c r="A210" s="7"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
@@ -20774,7 +20780,7 @@
       <c r="CM210" s="2"/>
     </row>
     <row r="211" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A211" s="2"/>
+      <c r="A211" s="7"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
@@ -20867,7 +20873,7 @@
       <c r="CM211" s="2"/>
     </row>
     <row r="212" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A212" s="2"/>
+      <c r="A212" s="7"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
@@ -20960,7 +20966,7 @@
       <c r="CM212" s="2"/>
     </row>
     <row r="213" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A213" s="2"/>
+      <c r="A213" s="7"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
@@ -21053,7 +21059,7 @@
       <c r="CM213" s="2"/>
     </row>
     <row r="214" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A214" s="2"/>
+      <c r="A214" s="7"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
@@ -21146,7 +21152,7 @@
       <c r="CM214" s="2"/>
     </row>
     <row r="215" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A215" s="2"/>
+      <c r="A215" s="7"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
@@ -21239,7 +21245,7 @@
       <c r="CM215" s="2"/>
     </row>
     <row r="216" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A216" s="2"/>
+      <c r="A216" s="7"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
@@ -21332,7 +21338,7 @@
       <c r="CM216" s="2"/>
     </row>
     <row r="217" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A217" s="2"/>
+      <c r="A217" s="7"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
@@ -21425,7 +21431,7 @@
       <c r="CM217" s="2"/>
     </row>
     <row r="218" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A218" s="2"/>
+      <c r="A218" s="7"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
@@ -21518,7 +21524,7 @@
       <c r="CM218" s="2"/>
     </row>
     <row r="219" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A219" s="2"/>
+      <c r="A219" s="7"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
@@ -21611,7 +21617,7 @@
       <c r="CM219" s="2"/>
     </row>
     <row r="220" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A220" s="2"/>
+      <c r="A220" s="7"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
@@ -21704,7 +21710,7 @@
       <c r="CM220" s="2"/>
     </row>
     <row r="221" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A221" s="2"/>
+      <c r="A221" s="7"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
@@ -21797,7 +21803,7 @@
       <c r="CM221" s="2"/>
     </row>
     <row r="222" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A222" s="2"/>
+      <c r="A222" s="7"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
@@ -21890,7 +21896,7 @@
       <c r="CM222" s="2"/>
     </row>
     <row r="223" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A223" s="2"/>
+      <c r="A223" s="7"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
@@ -21983,7 +21989,7 @@
       <c r="CM223" s="2"/>
     </row>
     <row r="224" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A224" s="2"/>
+      <c r="A224" s="7"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
@@ -22076,7 +22082,7 @@
       <c r="CM224" s="2"/>
     </row>
     <row r="225" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A225" s="2"/>
+      <c r="A225" s="7"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
@@ -22169,7 +22175,7 @@
       <c r="CM225" s="2"/>
     </row>
     <row r="226" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A226" s="2"/>
+      <c r="A226" s="7"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
@@ -22262,7 +22268,7 @@
       <c r="CM226" s="2"/>
     </row>
     <row r="227" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A227" s="2"/>
+      <c r="A227" s="7"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
@@ -22355,7 +22361,7 @@
       <c r="CM227" s="2"/>
     </row>
     <row r="228" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A228" s="2"/>
+      <c r="A228" s="7"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
@@ -22448,7 +22454,7 @@
       <c r="CM228" s="2"/>
     </row>
     <row r="229" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A229" s="2"/>
+      <c r="A229" s="7"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
@@ -22541,7 +22547,7 @@
       <c r="CM229" s="2"/>
     </row>
     <row r="230" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A230" s="2"/>
+      <c r="A230" s="7"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
@@ -22634,7 +22640,7 @@
       <c r="CM230" s="2"/>
     </row>
     <row r="231" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A231" s="2"/>
+      <c r="A231" s="7"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
@@ -22727,7 +22733,7 @@
       <c r="CM231" s="2"/>
     </row>
     <row r="232" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A232" s="2"/>
+      <c r="A232" s="7"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
@@ -22820,7 +22826,7 @@
       <c r="CM232" s="2"/>
     </row>
     <row r="233" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A233" s="2"/>
+      <c r="A233" s="7"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
@@ -22913,7 +22919,7 @@
       <c r="CM233" s="2"/>
     </row>
     <row r="234" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A234" s="2"/>
+      <c r="A234" s="7"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
@@ -23006,7 +23012,7 @@
       <c r="CM234" s="2"/>
     </row>
     <row r="235" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A235" s="2"/>
+      <c r="A235" s="7"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
@@ -23099,7 +23105,7 @@
       <c r="CM235" s="2"/>
     </row>
     <row r="236" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A236" s="2"/>
+      <c r="A236" s="7"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
@@ -23192,7 +23198,7 @@
       <c r="CM236" s="2"/>
     </row>
     <row r="237" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A237" s="2"/>
+      <c r="A237" s="7"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
@@ -23285,7 +23291,7 @@
       <c r="CM237" s="2"/>
     </row>
     <row r="238" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A238" s="2"/>
+      <c r="A238" s="7"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>

--- a/גאנט עבודה.xlsx
+++ b/גאנט עבודה.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitHub\Doctors_Security\Doctors_Security\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F80659-4F8F-4821-A7EC-F5A5740EC99A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BA92E6-DEB2-4F91-BDF7-EC570C867F5D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F78956AB-E293-4DCE-86B3-69E8E44B1CF8}"/>
   </bookViews>
@@ -572,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80036092-1CDD-4223-8CB5-5D7C48E70C85}">
   <dimension ref="A2:CM238"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AU1" sqref="F1:AU1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +581,9 @@
     <col min="1" max="1" width="54.7109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" customWidth="1"/>
-    <col min="4" max="91" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="47" width="4.28515625" hidden="1" customWidth="1"/>
+    <col min="48" max="91" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:91" x14ac:dyDescent="0.25">
